--- a/2-Data/Raw/Yields/Marsden 2019 Oat Harvest.xlsx
+++ b/2-Data/Raw/Yields/Marsden 2019 Oat Harvest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27321"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B99E65A8-76F2-D04D-B142-EAEA77C66AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A268762-28CC-45CA-855B-C38202595B8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B0E2B8-BD04-7D43-A620-16A178BEFB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="540" windowWidth="22260" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="780" windowWidth="22260" windowHeight="19340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -336,10 +336,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -627,67 +624,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:V43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" customWidth="1"/>
-    <col min="16" max="16" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" ht="18.95">
+    <row r="2" spans="1:22" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
-      <c r="D7" s="19" t="s">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="D7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="O7" s="19" t="s">
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="O7" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="T7" s="19" t="s">
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="T7" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
-    </row>
-    <row r="8" spans="1:22" ht="15.95" thickBot="1"/>
-    <row r="9" spans="1:22">
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+    </row>
+    <row r="8" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -710,15 +708,15 @@
       <c r="H9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
       <c r="O9" s="1" t="s">
         <v>16</v>
       </c>
@@ -741,7 +739,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -766,17 +764,17 @@
       <c r="H10" s="1">
         <v>32.9</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <f>F10*(100-G10)/100</f>
         <v>70.181015625000001</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <f>I10*1.14</f>
         <v>80.006357812499999</v>
       </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
       <c r="O10" s="1">
         <v>626</v>
       </c>
@@ -803,7 +801,7 @@
         <v>14.155770324047756</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>14</v>
       </c>
@@ -828,17 +826,17 @@
       <c r="H11" s="1">
         <v>32.9</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="17">
         <f t="shared" ref="I11:I17" si="2">F11*(100-G11)/100</f>
         <v>74.827812499999993</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f t="shared" ref="J11:J17" si="3">I11*1.14</f>
         <v>85.303706249999991</v>
       </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
       <c r="O11" s="1">
         <v>453</v>
       </c>
@@ -865,7 +863,7 @@
         <v>17.548226509023017</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -890,17 +888,17 @@
       <c r="H12" s="1">
         <v>32.9</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="17">
         <f t="shared" si="2"/>
         <v>73.779375000000002</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <f t="shared" si="3"/>
         <v>84.108487499999995</v>
       </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
       <c r="O12" s="1">
         <v>573</v>
       </c>
@@ -927,7 +925,7 @@
         <v>16.425679583574322</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>29</v>
       </c>
@@ -952,17 +950,17 @@
       <c r="H13" s="1">
         <v>32.9</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <f t="shared" si="2"/>
         <v>71.581249999999997</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <f t="shared" si="3"/>
         <v>81.602624999999989</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
       <c r="O13" s="1">
         <v>366</v>
       </c>
@@ -989,7 +987,7 @@
         <v>12.845705967976714</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>32</v>
       </c>
@@ -1014,17 +1012,17 @@
       <c r="H14" s="1">
         <v>32.9</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="17">
         <f t="shared" si="2"/>
         <v>73.507500000000007</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <f t="shared" si="3"/>
         <v>83.798550000000006</v>
       </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
       <c r="O14" s="1">
         <v>528</v>
       </c>
@@ -1051,7 +1049,7 @@
         <v>14.220631304913761</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>38</v>
       </c>
@@ -1076,17 +1074,17 @@
       <c r="H15" s="1">
         <v>32.9</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <f t="shared" si="2"/>
         <v>68.6640625</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <f t="shared" si="3"/>
         <v>78.277031249999993</v>
       </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
       <c r="O15" s="1">
         <v>634</v>
       </c>
@@ -1113,7 +1111,7 @@
         <v>15.872483221476513</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>48</v>
       </c>
@@ -1138,17 +1136,17 @@
       <c r="H16" s="1">
         <v>32.9</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <f t="shared" si="2"/>
         <v>63.309140624999998</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <f t="shared" si="3"/>
         <v>72.172420312499995</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
       <c r="O16" s="1">
         <v>422</v>
       </c>
@@ -1175,7 +1173,7 @@
         <v>12.65442404006677</v>
       </c>
     </row>
-    <row r="17" spans="1:22" ht="15.95" thickBot="1">
+    <row r="17" spans="1:22" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
@@ -1200,17 +1198,17 @@
       <c r="H17" s="1">
         <v>32.9</v>
       </c>
-      <c r="I17" s="18">
+      <c r="I17" s="17">
         <f t="shared" si="2"/>
         <v>44.318039062499999</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <f t="shared" si="3"/>
         <v>50.522564531249991</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
       <c r="O17" s="1">
         <v>346</v>
       </c>
@@ -1237,32 +1235,32 @@
         <v>13.002214489085739</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="1" t="s">
         <v>29</v>
@@ -1272,7 +1270,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>31</v>
       </c>
@@ -1286,7 +1284,7 @@
         <v>0.56930713230349173</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>32</v>
       </c>
@@ -1300,7 +1298,7 @@
         <v>0.49866598258957773</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
@@ -1314,7 +1312,7 @@
         <v>0.61642720192868394</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -1328,13 +1326,13 @@
         <v>0.418506667761676</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>21</v>
       </c>
@@ -1348,7 +1346,7 @@
         <v>0.47714751384841664</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>22</v>
       </c>
@@ -1362,12 +1360,12 @@
         <v>0.574305978443298</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" s="1" t="s">
         <v>29</v>
@@ -1377,7 +1375,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
@@ -1391,7 +1389,7 @@
         <v>0.10346382877780586</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
@@ -1405,7 +1403,7 @@
         <v>6.6527587232179691E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>33</v>
       </c>
@@ -1419,7 +1417,7 @@
         <v>0.10094968282015863</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
@@ -1433,13 +1431,13 @@
         <v>8.4556302752332058E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>21</v>
       </c>
@@ -1453,7 +1451,7 @@
         <v>6.6059235862459889E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>22</v>
       </c>
